--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1633.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1633.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.080707653057664</v>
+        <v>0.9978650212287903</v>
       </c>
       <c r="B1">
-        <v>2.845980152317285</v>
+        <v>3.43825101852417</v>
       </c>
       <c r="C1">
-        <v>3.87351381482046</v>
+        <v>3.977217435836792</v>
       </c>
       <c r="D1">
-        <v>2.380089584613785</v>
+        <v>3.102188348770142</v>
       </c>
       <c r="E1">
-        <v>1.144210674466234</v>
+        <v>1.314154624938965</v>
       </c>
     </row>
   </sheetData>
